--- a/src/predicciones/holt_winters/producto_229.xlsx
+++ b/src/predicciones/holt_winters/producto_229.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1168 +404,1333 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44936</v>
       </c>
       <c r="B2">
-        <v>1.046786927949305</v>
+        <v>1.142441516608641</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44937</v>
       </c>
       <c r="B3">
-        <v>2.049225810979678</v>
+        <v>1.333616257884994</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44938</v>
       </c>
       <c r="B4">
-        <v>1.028249896795693</v>
+        <v>1.210332307812352</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44939</v>
       </c>
       <c r="B5">
-        <v>1.031249813672477</v>
+        <v>1.500143234295705</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44942</v>
       </c>
       <c r="B6">
-        <v>1.034781046232987</v>
+        <v>1.497457117896949</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44945</v>
       </c>
       <c r="B7">
-        <v>1.038261515434093</v>
+        <v>1.269760704079888</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44947</v>
       </c>
       <c r="B8">
-        <v>1.029160100125879</v>
+        <v>1.514828113058408</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44951</v>
       </c>
       <c r="B9">
-        <v>1.06075592137435</v>
+        <v>1.144523761050286</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44952</v>
       </c>
       <c r="B10">
-        <v>2.063194804404723</v>
+        <v>1.335698502326639</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44956</v>
       </c>
       <c r="B11">
-        <v>1.042218890220737</v>
+        <v>1.212414552253997</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44962</v>
       </c>
       <c r="B12">
-        <v>1.045218807097522</v>
+        <v>1.50222547873735</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44973</v>
       </c>
       <c r="B13">
-        <v>1.048750039658032</v>
+        <v>1.499539362338594</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44977</v>
       </c>
       <c r="B14">
-        <v>1.052230508859138</v>
+        <v>1.271842948521533</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44978</v>
       </c>
       <c r="B15">
-        <v>1.043129093550924</v>
+        <v>1.516910357500052</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44982</v>
       </c>
       <c r="B16">
-        <v>1.074724914799394</v>
+        <v>1.14660600549193</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44985</v>
       </c>
       <c r="B17">
-        <v>2.077163797829767</v>
+        <v>1.337780746768284</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44989</v>
       </c>
       <c r="B18">
-        <v>1.056187883645782</v>
+        <v>1.214496796695642</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44990</v>
       </c>
       <c r="B19">
-        <v>1.059187800522567</v>
+        <v>1.504307723178995</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44998</v>
       </c>
       <c r="B20">
-        <v>1.062719033083076</v>
+        <v>1.501621606780239</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45002</v>
       </c>
       <c r="B21">
-        <v>1.066199502284183</v>
+        <v>1.273925192963177</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45003</v>
       </c>
       <c r="B22">
-        <v>1.057098086975969</v>
+        <v>1.518992601941697</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45006</v>
       </c>
       <c r="B23">
-        <v>1.088693908224439</v>
+        <v>1.148688249933575</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45010</v>
       </c>
       <c r="B24">
-        <v>2.091132791254812</v>
+        <v>1.339862991209928</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45012</v>
       </c>
       <c r="B25">
-        <v>1.070156877070827</v>
+        <v>1.216579041137287</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45014</v>
       </c>
       <c r="B26">
-        <v>1.073156793947612</v>
+        <v>1.506389967620639</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45016</v>
       </c>
       <c r="B27">
-        <v>1.076688026508121</v>
+        <v>1.503703851221884</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45030</v>
       </c>
       <c r="B28">
-        <v>1.080168495709227</v>
+        <v>1.276007437404822</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45033</v>
       </c>
       <c r="B29">
-        <v>1.071067080401013</v>
+        <v>1.521074846383342</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45038</v>
       </c>
       <c r="B30">
-        <v>1.102662901649484</v>
+        <v>1.15077049437522</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45042</v>
       </c>
       <c r="B31">
-        <v>2.105101784679857</v>
+        <v>1.341945235651573</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45044</v>
       </c>
       <c r="B32">
-        <v>1.084125870495872</v>
+        <v>1.218661285578931</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45046</v>
       </c>
       <c r="B33">
-        <v>1.087125787372656</v>
+        <v>1.508472212062284</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45052</v>
       </c>
       <c r="B34">
-        <v>1.090657019933166</v>
+        <v>1.505786095663529</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45053</v>
       </c>
       <c r="B35">
-        <v>1.094137489134272</v>
+        <v>1.278089681846467</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45054</v>
       </c>
       <c r="B36">
-        <v>1.085036073826058</v>
+        <v>1.523157090824987</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45056</v>
       </c>
       <c r="B37">
-        <v>1.116631895074529</v>
+        <v>1.152852738816865</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45060</v>
       </c>
       <c r="B38">
-        <v>2.119070778104902</v>
+        <v>1.344027480093218</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45062</v>
       </c>
       <c r="B39">
-        <v>1.098094863920916</v>
+        <v>1.220743530020576</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45068</v>
       </c>
       <c r="B40">
-        <v>1.101094780797701</v>
+        <v>1.510554456503929</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45074</v>
       </c>
       <c r="B41">
-        <v>1.10462601335821</v>
+        <v>1.507868340105173</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45077</v>
       </c>
       <c r="B42">
-        <v>1.108106482559317</v>
+        <v>1.280171926288112</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45079</v>
       </c>
       <c r="B43">
-        <v>1.099005067251103</v>
+        <v>1.525239335266632</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45080</v>
       </c>
       <c r="B44">
-        <v>1.130600888499573</v>
+        <v>1.15493498325851</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45081</v>
       </c>
       <c r="B45">
-        <v>2.133039771529946</v>
+        <v>1.346109724534863</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45094</v>
       </c>
       <c r="B46">
-        <v>1.112063857345961</v>
+        <v>1.222825774462221</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45100</v>
       </c>
       <c r="B47">
-        <v>1.115063774222746</v>
+        <v>1.512636700945574</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45101</v>
       </c>
       <c r="B48">
-        <v>1.118595006783255</v>
+        <v>1.509950584546818</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45105</v>
       </c>
       <c r="B49">
-        <v>1.122075475984362</v>
+        <v>1.282254170729757</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45109</v>
       </c>
       <c r="B50">
-        <v>1.112974060676148</v>
+        <v>1.527321579708277</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45113</v>
       </c>
       <c r="B51">
-        <v>1.144569881924618</v>
+        <v>1.157017227700155</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45126</v>
       </c>
       <c r="B52">
-        <v>2.147008764954991</v>
+        <v>1.348191968976508</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45130</v>
       </c>
       <c r="B53">
-        <v>1.126032850771006</v>
+        <v>1.224908018903866</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45131</v>
       </c>
       <c r="B54">
-        <v>1.12903276764779</v>
+        <v>1.514718945387219</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45133</v>
       </c>
       <c r="B55">
-        <v>1.1325640002083</v>
+        <v>1.512032828988463</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45135</v>
       </c>
       <c r="B56">
-        <v>1.136044469409406</v>
+        <v>1.284336415171402</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45140</v>
       </c>
       <c r="B57">
-        <v>1.126943054101192</v>
+        <v>1.529403824149921</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45142</v>
       </c>
       <c r="B58">
-        <v>1.158538875349663</v>
+        <v>1.1590994721418</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45155</v>
       </c>
       <c r="B59">
-        <v>2.160977758380036</v>
+        <v>1.350274213418153</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45158</v>
       </c>
       <c r="B60">
-        <v>1.14000184419605</v>
+        <v>1.226990263345511</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45162</v>
       </c>
       <c r="B61">
-        <v>1.143001761072835</v>
+        <v>1.516801189828864</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45163</v>
       </c>
       <c r="B62">
-        <v>1.146532993633345</v>
+        <v>1.514115073430108</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45165</v>
       </c>
       <c r="B63">
-        <v>1.150013462834451</v>
+        <v>1.286418659613046</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45166</v>
       </c>
       <c r="B64">
-        <v>1.140912047526237</v>
+        <v>1.531486068591567</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45172</v>
       </c>
       <c r="B65">
-        <v>1.172507868774707</v>
+        <v>1.161181716583445</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45174</v>
       </c>
       <c r="B66">
-        <v>2.174946751805081</v>
+        <v>1.352356457859798</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45176</v>
       </c>
       <c r="B67">
-        <v>1.153970837621095</v>
+        <v>1.229072507787156</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45177</v>
       </c>
       <c r="B68">
-        <v>1.15697075449788</v>
+        <v>1.518883434270509</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45181</v>
       </c>
       <c r="B69">
-        <v>1.160501987058389</v>
+        <v>1.516197317871753</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45182</v>
       </c>
       <c r="B70">
-        <v>1.163982456259496</v>
+        <v>1.288500904054691</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45184</v>
       </c>
       <c r="B71">
-        <v>1.154881040951282</v>
+        <v>1.533568313033211</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45186</v>
       </c>
       <c r="B72">
-        <v>1.186476862199752</v>
+        <v>1.163263961025089</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45192</v>
       </c>
       <c r="B73">
-        <v>2.188915745230125</v>
+        <v>1.354438702301442</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45193</v>
       </c>
       <c r="B74">
-        <v>1.16793983104614</v>
+        <v>1.231154752228801</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45194</v>
       </c>
       <c r="B75">
-        <v>1.170939747922925</v>
+        <v>1.520965678712153</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45195</v>
       </c>
       <c r="B76">
-        <v>1.174470980483434</v>
+        <v>1.518279562313398</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45196</v>
       </c>
       <c r="B77">
-        <v>1.17795144968454</v>
+        <v>1.290583148496336</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45197</v>
       </c>
       <c r="B78">
-        <v>1.168850034376327</v>
+        <v>1.535650557474856</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45198</v>
       </c>
       <c r="B79">
-        <v>1.200445855624797</v>
+        <v>1.165346205466734</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45199</v>
       </c>
       <c r="B80">
-        <v>2.20288473865517</v>
+        <v>1.356520946743087</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45201</v>
       </c>
       <c r="B81">
-        <v>1.181908824471185</v>
+        <v>1.233236996670446</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45203</v>
       </c>
       <c r="B82">
-        <v>1.18490874134797</v>
+        <v>1.523047923153798</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45205</v>
       </c>
       <c r="B83">
-        <v>1.188439973908479</v>
+        <v>1.520361806755042</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45214</v>
       </c>
       <c r="B84">
-        <v>1.191920443109585</v>
+        <v>1.292665392937981</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45221</v>
       </c>
       <c r="B85">
-        <v>1.182819027801371</v>
+        <v>1.537732801916501</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45225</v>
       </c>
       <c r="B86">
-        <v>1.214414849049842</v>
+        <v>1.167428449908379</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45228</v>
       </c>
       <c r="B87">
-        <v>2.216853732080215</v>
+        <v>1.358603191184732</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45230</v>
       </c>
       <c r="B88">
-        <v>1.195877817896229</v>
+        <v>1.23531924111209</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45232</v>
       </c>
       <c r="B89">
-        <v>1.198877734773014</v>
+        <v>1.525130167595443</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45235</v>
       </c>
       <c r="B90">
-        <v>1.202408967333523</v>
+        <v>1.522444051196687</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45236</v>
       </c>
       <c r="B91">
-        <v>1.20588943653463</v>
+        <v>1.294747637379626</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45242</v>
       </c>
       <c r="B92">
-        <v>1.196788021226416</v>
+        <v>1.539815046358146</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45244</v>
       </c>
       <c r="B93">
-        <v>1.228383842474887</v>
+        <v>1.169510694350024</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45249</v>
       </c>
       <c r="B94">
-        <v>2.230822725505259</v>
+        <v>1.360685435626377</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45252</v>
       </c>
       <c r="B95">
-        <v>1.209846811321274</v>
+        <v>1.237401485553735</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45254</v>
       </c>
       <c r="B96">
-        <v>1.212846728198059</v>
+        <v>1.527212412037088</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45258</v>
       </c>
       <c r="B97">
-        <v>1.216377960758568</v>
+        <v>1.524526295638332</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45260</v>
       </c>
       <c r="B98">
-        <v>1.219858429959675</v>
+        <v>1.296829881821271</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45271</v>
       </c>
       <c r="B99">
-        <v>1.210757014651461</v>
+        <v>1.541897290799791</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45273</v>
       </c>
       <c r="B100">
-        <v>1.242352835899931</v>
+        <v>1.171592938791669</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45276</v>
       </c>
       <c r="B101">
-        <v>2.244791718930304</v>
+        <v>1.362767680068022</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45279</v>
       </c>
       <c r="B102">
-        <v>1.223815804746319</v>
+        <v>1.23948372999538</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45282</v>
       </c>
       <c r="B103">
-        <v>1.226815721623103</v>
+        <v>1.529294656478733</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45283</v>
       </c>
       <c r="B104">
-        <v>1.230346954183613</v>
+        <v>1.526608540079977</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45291</v>
       </c>
       <c r="B105">
-        <v>1.233827423384719</v>
+        <v>1.298912126262916</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45294</v>
       </c>
       <c r="B106">
-        <v>1.224726008076505</v>
+        <v>1.543979535241436</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45299</v>
       </c>
       <c r="B107">
-        <v>1.256321829324976</v>
+        <v>1.173675183233314</v>
       </c>
       <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B108">
+        <v>1.364849924509667</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B109">
+        <v>1.241565974437025</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B110">
+        <v>1.531376900920378</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B111">
+        <v>1.528690784521622</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B112">
+        <v>1.300994370704561</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B113">
+        <v>1.54606177968308</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B114">
+        <v>1.175757427674958</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B115">
+        <v>1.366932168951312</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B116">
+        <v>1.24364821887867</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B117">
+        <v>1.533459145362023</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B118">
+        <v>1.530773028963267</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B119">
+        <v>1.303076615146205</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B120">
+        <v>1.548144024124725</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B121">
+        <v>1.177839672116603</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B122">
+        <v>1.369014413392956</v>
+      </c>
+      <c r="C122">
         <v>1</v>
       </c>
     </row>
